--- a/docss/trend/croatia/E_ataxy.xlsx
+++ b/docss/trend/croatia/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\croatia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\croatia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -210,18 +210,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,7 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1703,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,183 +1719,202 @@
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0</v>
-      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="13">
-        <v>2.2903436794877052E-2</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
+      <c r="B3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="13">
-        <v>2.3248091340065002E-2</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
+      <c r="B5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="13">
-        <v>4.6769028529524803E-2</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
+      <c r="B6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="13">
-        <v>6.2523363158106804E-2</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
+      <c r="B7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="13">
-        <v>2.0971771329641342E-2</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
+      <c r="B10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="13">
-        <v>4.3760029599070549E-2</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0</v>
-      </c>
-      <c r="D14" s="13">
-        <v>3.7064719945192337E-2</v>
-      </c>
+      <c r="B14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
